--- a/AutoML CV/Transfer - OneToOne - AutoML (askl2) Processed/A_OneToOne_AllFeatures_30.xlsx
+++ b/AutoML CV/Transfer - OneToOne - AutoML (askl2) Processed/A_OneToOne_AllFeatures_30.xlsx
@@ -171,8 +171,8 @@
   </sheetPr>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -211,15 +211,15 @@
         <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0.5</v>
+        <v>0.498888888888889</v>
       </c>
       <c r="G2" s="0" t="n">
         <f aca="false">AVERAGE(D2:D145)</f>
-        <v>0.636291152263375</v>
+        <v>0.625300925925926</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">STDEV(D2:D145)</f>
-        <v>0.190403966824696</v>
+        <v>0.20277552880929</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -233,7 +233,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.338888888888889</v>
+        <v>0.485185185185185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,7 +247,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.48962962962963</v>
+        <v>0.460740740740741</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -261,7 +261,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.979259259259259</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +275,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.978888888888889</v>
+        <v>0.968518518518519</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,7 +289,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.439259259259259</v>
+        <v>0.445185185185185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +303,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.494814814814815</v>
+        <v>0.499259259259259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,7 +317,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.333333333333333</v>
+        <v>0.498888888888889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +331,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.64037037037037</v>
+        <v>0.612222222222222</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +345,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.438518518518519</v>
+        <v>0.328888888888889</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,7 +359,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.462962962962963</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +373,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.657407407407407</v>
+        <v>0.63037037037037</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,7 +387,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.605185185185185</v>
+        <v>0.482962962962963</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.432592592592593</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +415,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.994444444444445</v>
+        <v>0.993333333333333</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.993703703703704</v>
+        <v>0.958518518518519</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,7 +443,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.582592592592593</v>
+        <v>0.401481481481482</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.468148148148148</v>
+        <v>0.262592592592593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.681851851851852</v>
+        <v>0.861481481481482</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.632592592592593</v>
+        <v>0.430740740740741</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.664444444444444</v>
+        <v>0.499259259259259</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.865925925925926</v>
+        <v>0.687407407407407</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.481111111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.664444444444444</v>
+        <v>0.557407407407408</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.479259259259259</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.608518518518519</v>
+        <v>0.624814814814815</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.691851851851852</v>
+        <v>0.810740740740741</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.497407407407407</v>
+        <v>0.497777777777778</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.49962962962963</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.596666666666667</v>
+        <v>0.662222222222222</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.494444444444444</v>
+        <v>0.498148148148148</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.966296296296296</v>
+        <v>0.969259259259259</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.672222222222222</v>
+        <v>0.735555555555556</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.606296296296296</v>
+        <v>0.627407407407407</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.567777777777778</v>
+        <v>0.598148148148148</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.974814814814815</v>
+        <v>0.979259259259259</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.623333333333333</v>
+        <v>0.632962962962963</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.624814814814815</v>
+        <v>0.628518518518519</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.615185185185185</v>
+        <v>0.656666666666667</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +779,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.864814814814815</v>
+        <v>0.905555555555556</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.640740740740741</v>
+        <v>0.654814814814815</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.574444444444444</v>
+        <v>0.651111111111111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.532222222222222</v>
+        <v>0.651111111111111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.964074074074074</v>
+        <v>0.964444444444444</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.502962962962963</v>
+        <v>0.674074074074074</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.605925925925926</v>
+        <v>0.644074074074074</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.63</v>
+        <v>0.643703703703704</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.504444444444445</v>
+        <v>0.377037037037037</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -905,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.66962962962963</v>
+        <v>0.674444444444444</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.976296296296296</v>
+        <v>0.971111111111111</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.999259259259259</v>
+        <v>0.998888888888889</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.537777777777778</v>
+        <v>0.487407407407407</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.524074074074074</v>
+        <v>0.487037037037037</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.636666666666667</v>
+        <v>0.664074074074074</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.661111111111111</v>
+        <v>0.631851851851852</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.641481481481481</v>
+        <v>0.636666666666667</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.985925925925926</v>
+        <v>0.984814814814815</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.325555555555556</v>
+        <v>0.585555555555556</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.464444444444444</v>
+        <v>0.638888888888889</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>0.657407407407407</v>
+        <v>0.651111111111111</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1073,7 +1073,7 @@
         <v>7</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>0.66962962962963</v>
+        <v>0.537407407407407</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>0.521481481481481</v>
+        <v>0.674444444444444</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0.991851851851852</v>
+        <v>0.987777777777778</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1115,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>0.611111111111111</v>
+        <v>0.504814814814815</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>0.883703703703704</v>
+        <v>0.722592592592593</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>0.405185185185185</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1157,7 +1157,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.401481481481482</v>
+        <v>0.304444444444444</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1171,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0.61962962962963</v>
+        <v>0.517037037037037</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>0.633333333333333</v>
+        <v>0.665185185185185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0.431481481481481</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.956296296296296</v>
+        <v>0.805925925925926</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>0.720740740740741</v>
+        <v>0.48962962962963</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>0.666296296296296</v>
+        <v>0.344814814814815</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.591111111111111</v>
+        <v>0.477777777777778</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>0.965555555555556</v>
+        <v>0.974814814814815</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>0.813703703703704</v>
+        <v>0.973703703703704</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0.606666666666667</v>
+        <v>0.505185185185185</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>0.73037037037037</v>
+        <v>0.494444444444444</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.518148148148148</v>
+        <v>0.417407407407407</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>0.547777777777778</v>
+        <v>0.612222222222222</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1353,7 +1353,7 @@
         <v>7</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.277777777777778</v>
+        <v>0.328888888888889</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>0.564814814814815</v>
+        <v>0.63037037037037</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>0.37962962962963</v>
+        <v>0.482962962962963</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1437,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.791111111111111</v>
+        <v>0.958518518518519</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>0.492592592592593</v>
+        <v>0.304814814814815</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.508518518518519</v>
+        <v>0.405185185185185</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.710740740740741</v>
+        <v>0.644074074074074</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1493,7 @@
         <v>7</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>0.5</v>
+        <v>0.312592592592593</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>0.514444444444445</v>
+        <v>0.348888888888889</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1521,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0.699259259259259</v>
+        <v>0.667777777777778</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>0.508518518518519</v>
+        <v>0.488148148148148</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.536296296296296</v>
+        <v>0.664444444444444</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.489259259259259</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1577,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.608888888888889</v>
+        <v>0.624814814814815</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.815925925925926</v>
+        <v>0.810740740740741</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>0.49962962962963</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1633,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>0.99962962962963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,7 +1647,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>0.600740740740741</v>
+        <v>0.662222222222222</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.494444444444444</v>
+        <v>0.498148148148148</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>0.968148148148148</v>
+        <v>0.968518518518519</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1689,7 @@
         <v>7</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.730740740740741</v>
+        <v>0.725925925925926</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>0.61037037037037</v>
+        <v>0.577407407407407</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>0.595555555555556</v>
+        <v>0.55037037037037</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>0.965555555555556</v>
+        <v>0.98037037037037</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>0.646666666666667</v>
+        <v>0.627777777777778</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>0.637407407407407</v>
+        <v>0.618518518518519</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.606666666666667</v>
+        <v>0.652962962962963</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.892962962962963</v>
+        <v>0.894814814814815</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.49037037037037</v>
+        <v>0.664444444444444</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.474074074074074</v>
+        <v>0.625925925925926</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,7 +1829,7 @@
         <v>7</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>0.403703703703704</v>
+        <v>0.621111111111111</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>0.96037037037037</v>
+        <v>0.965555555555556</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,7 +1857,7 @@
         <v>7</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>0.4</v>
+        <v>0.654074074074074</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +1871,7 @@
         <v>7</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>0.493333333333333</v>
+        <v>0.657777777777778</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>0.475185185185185</v>
+        <v>0.656296296296296</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1899,7 @@
         <v>7</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.504444444444445</v>
+        <v>0.464814814814815</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.66962962962963</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>0.976296296296296</v>
+        <v>0.975185185185185</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1955,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>0.537777777777778</v>
+        <v>0.487037037037037</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>0.524074074074074</v>
+        <v>0.491111111111111</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,7 +1983,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0.636666666666667</v>
+        <v>0.632592592592593</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,7 +1997,7 @@
         <v>7</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>0.661111111111111</v>
+        <v>0.634814814814815</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>0.642592592592593</v>
+        <v>0.517037037037037</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2025,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0.97962962962963</v>
+        <v>0.984074074074074</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>0.465185185185185</v>
+        <v>0.641481481481481</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>0.457777777777778</v>
+        <v>0.62037037037037</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>0.652592592592593</v>
+        <v>0.531851851851852</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>0.509259259259259</v>
+        <v>0.377407407407407</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.541111111111111</v>
+        <v>0.63962962962963</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.901481481481481</v>
+        <v>0.954444444444444</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2123,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0.611111111111111</v>
+        <v>0.503703703703704</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.883703703703704</v>
+        <v>0.715925925925926</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>0.405185185185185</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2165,7 @@
         <v>7</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>0.401481481481482</v>
+        <v>0.302962962962963</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>0.61962962962963</v>
+        <v>0.514814814814815</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,7 +2193,7 @@
         <v>7</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>0.633333333333333</v>
+        <v>0.665185185185185</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>0.431481481481481</v>
+        <v>0.332962962962963</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>0.956296296296296</v>
+        <v>0.805555555555556</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
